--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2495942.615589684</v>
+        <v>2493685.5936806</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.58283624</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>91.3794951623958</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>54.09037106458499</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>56.72699744179295</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>183.8819774006277</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>152.338902686281</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>112.7016475500168</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>9.22084658737597</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>120.5234819888328</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>20.50754416688481</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>48.1063726680739</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>14.48345164522479</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,7 +1464,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
         <v>18.81721868247745</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1531,16 +1531,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>203.406813219203</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.264199955998229</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>146.9083821604494</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>33.65999533764835</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,7 +1938,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
         <v>18.81721868247745</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>114.4746605491558</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.2292170629828</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>36.15999212057396</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>119.9055691882088</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,7 +2412,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
         <v>18.81721868247745</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>79.49505480544661</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>23.35772589727816</v>
       </c>
     </row>
     <row r="26">
@@ -2612,7 +2612,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2770,16 +2770,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>199.899712130881</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>216.4382841997515</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>73.08684350408541</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>121.0757368602309</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>118.4943067351069</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3247,10 +3247,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>11.168189153341</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>178.7757248935319</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102221</v>
+        <v>166.1905658102224</v>
       </c>
       <c r="D37" t="n">
-        <v>130.6379157370311</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581634</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345255</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>87.87589738164193</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>188.7127700430365</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>218.4926939877638</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172071</v>
+        <v>285.1555829172075</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354223</v>
+        <v>251.0813880354226</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481853</v>
+        <v>285.4667430481856</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006314</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636891</v>
+        <v>188.7051276880624</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,13 +3554,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433872</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404352</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124556</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797664</v>
+        <v>99.458826027977</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433872</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124556</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -4183,7 +4183,7 @@
         <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
         <v>172.5738126575766</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1267.312047941846</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C2" t="n">
-        <v>898.3495310014346</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>898.3495310014346</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>898.3495310014346</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>891.4040302522311</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>473.440222150418</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>146.2455021864208</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1267.312047941846</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1267.312047941846</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.5651556036576</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C4" t="n">
-        <v>290.5651556036576</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>290.5651556036576</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>290.5651556036576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>290.5651556036576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>290.5651556036576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>456.5405636086444</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406182</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="W4" t="n">
-        <v>290.5651556036576</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X4" t="n">
-        <v>290.5651556036576</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y4" t="n">
-        <v>290.5651556036576</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1745.334734821698</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2280.203542751141</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2280.203542751141</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1949.14065540757</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>1596.372000137456</v>
       </c>
       <c r="X5" t="n">
-        <v>2135.474066797509</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="Y5" t="n">
-        <v>1745.334734821698</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="6">
@@ -4650,16 +4650,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005474</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1668.489050745291</v>
+        <v>927.7879015331891</v>
       </c>
       <c r="C8" t="n">
-        <v>1299.526533804879</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D8" t="n">
-        <v>941.2608351981287</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W8" t="n">
-        <v>2445.228222785224</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="X8" t="n">
-        <v>2445.228222785224</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="Y8" t="n">
-        <v>2055.088890809413</v>
+        <v>1314.387741597311</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>252.6519168570173</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>323.257219162842</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>323.257219162842</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>68.57273095695516</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>252.6519168570173</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5030,7 +5030,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5042,25 +5042,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1069.293752345675</v>
+        <v>1460.488316778687</v>
       </c>
       <c r="M11" t="n">
-        <v>1832.617028429937</v>
+        <v>2439.038619608516</v>
       </c>
       <c r="N11" t="n">
-        <v>2812.369300656583</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O11" t="n">
-        <v>3692.333950986038</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5072,10 +5072,10 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
@@ -5084,7 +5084,7 @@
         <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5094,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E12" t="n">
         <v>487.9678785494859</v>
@@ -5118,28 +5118,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>708.1835515663147</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>708.1835515663147</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839442</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104703</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.240599230347</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V13" t="n">
-        <v>1412.55611102446</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W13" t="n">
-        <v>1123.138940987499</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X13" t="n">
-        <v>895.1493900894819</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.8320163965544</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5276,25 +5276,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1069.293752345675</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M14" t="n">
-        <v>1999.417367126749</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353395</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188666</v>
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193586</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>686.6979017231758</v>
+        <v>391.8664332433626</v>
       </c>
       <c r="C16" t="n">
-        <v>686.6979017231758</v>
+        <v>391.8664332433626</v>
       </c>
       <c r="D16" t="n">
-        <v>536.5812623108401</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E16" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5440,7 +5440,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1922.343470814149</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1922.343470814149</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1922.343470814149</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1633.240603939793</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1378.556115733906</v>
+        <v>909.2731541783406</v>
       </c>
       <c r="W16" t="n">
-        <v>1089.138945696945</v>
+        <v>619.85598414138</v>
       </c>
       <c r="X16" t="n">
-        <v>1089.138945696946</v>
+        <v>391.8664332433626</v>
       </c>
       <c r="Y16" t="n">
-        <v>868.3463665534156</v>
+        <v>391.8664332433626</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,46 +5513,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483405</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N17" t="n">
-        <v>3070.887536710052</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O17" t="n">
-        <v>3573.860007589389</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,13 +5568,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E18" t="n">
         <v>487.9678785494859</v>
@@ -5592,13 +5592,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>877.1197344942218</v>
+        <v>211.192004700067</v>
       </c>
       <c r="C19" t="n">
-        <v>708.1835515663148</v>
+        <v>211.192004700067</v>
       </c>
       <c r="D19" t="n">
-        <v>558.066912153979</v>
+        <v>211.192004700067</v>
       </c>
       <c r="E19" t="n">
-        <v>410.1538185715859</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5671,13 +5671,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5689,34 +5689,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U19" t="n">
-        <v>1956.343466104703</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V19" t="n">
-        <v>1701.658977898816</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W19" t="n">
-        <v>1412.241807861855</v>
+        <v>841.622599571854</v>
       </c>
       <c r="X19" t="n">
-        <v>1184.252256963838</v>
+        <v>613.6330486738368</v>
       </c>
       <c r="Y19" t="n">
-        <v>1058.768199324461</v>
+        <v>392.8404695303067</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,25 +5750,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2016.310259422545</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N20" t="n">
-        <v>2996.062531649191</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O20" t="n">
-        <v>3499.035002528528</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P20" t="n">
-        <v>4212.390089975474</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5777,25 +5777,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
         <v>794.200663232024</v>
@@ -5850,19 +5850,19 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>301.0224619425378</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C22" t="n">
-        <v>132.0862790146308</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D22" t="n">
-        <v>132.0862790146307</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E22" t="n">
         <v>95.56103444839442</v>
@@ -5908,52 +5908,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N22" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.657581931529</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1475.554715057173</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1220.870226851286</v>
+        <v>1042.840905830482</v>
       </c>
       <c r="W22" t="n">
-        <v>931.453056814325</v>
+        <v>1042.840905830482</v>
       </c>
       <c r="X22" t="n">
-        <v>703.4635059163077</v>
+        <v>814.8513549324643</v>
       </c>
       <c r="Y22" t="n">
-        <v>482.6709267727775</v>
+        <v>594.0587757889342</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,46 +5987,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2151.197749519703</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3130.95002174635</v>
+        <v>3070.887536710053</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075805</v>
+        <v>3573.86000758939</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432983</v>
+        <v>4287.215095036336</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E24" t="n">
         <v>487.9678785494859</v>
@@ -6066,19 +6066,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>492.7083461157113</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C25" t="n">
-        <v>323.7721631878043</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D25" t="n">
-        <v>323.7721631878043</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>175.8590696054112</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>175.8590696054112</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>175.8590696054112</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6145,13 +6145,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6163,34 +6163,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104703</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1667.240599230346</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1412.556111024459</v>
+        <v>909.2731541783406</v>
       </c>
       <c r="W25" t="n">
-        <v>1123.138940987498</v>
+        <v>619.85598414138</v>
       </c>
       <c r="X25" t="n">
-        <v>895.1493900894811</v>
+        <v>619.85598414138</v>
       </c>
       <c r="Y25" t="n">
-        <v>674.356810945951</v>
+        <v>596.2623216188767</v>
       </c>
     </row>
     <row r="26">
@@ -6203,46 +6203,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1650.184003770974</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M26" t="n">
-        <v>2317.998088216516</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N26" t="n">
-        <v>3297.750360443163</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O26" t="n">
-        <v>3800.7228313225</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
         <v>4653.975400188666</v>
@@ -6263,7 +6263,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
         <v>3150.95552873011</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
@@ -6306,7 +6306,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
         <v>794.2006632320243</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>562.5269503710301</v>
+        <v>559.5976972681534</v>
       </c>
       <c r="C28" t="n">
-        <v>393.5907674431232</v>
+        <v>559.5976972681534</v>
       </c>
       <c r="D28" t="n">
-        <v>243.4741280307875</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6382,7 +6382,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
         <v>344.6708498442063</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.576850674229</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1190.789495593986</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W28" t="n">
-        <v>1190.789495593986</v>
+        <v>962.0387412419233</v>
       </c>
       <c r="X28" t="n">
-        <v>962.7999446959685</v>
+        <v>962.0387412419233</v>
       </c>
       <c r="Y28" t="n">
-        <v>744.1754152012699</v>
+        <v>741.2461620983931</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
@@ -6461,25 +6461,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M29" t="n">
-        <v>2536.153662641309</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N29" t="n">
-        <v>3254.420735780954</v>
+        <v>3348.500285847604</v>
       </c>
       <c r="O29" t="n">
-        <v>3757.393206660291</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
         <v>4719.034655862919</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>806.7425750505952</v>
+        <v>539.8079542252649</v>
       </c>
       <c r="C31" t="n">
-        <v>637.8063921226883</v>
+        <v>539.8079542252655</v>
       </c>
       <c r="D31" t="n">
-        <v>487.6897527103525</v>
+        <v>389.6913148129297</v>
       </c>
       <c r="E31" t="n">
-        <v>339.7766591279594</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F31" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G31" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104703</v>
+        <v>1601.002030240486</v>
       </c>
       <c r="U31" t="n">
-        <v>1667.240599230347</v>
+        <v>1311.89916336613</v>
       </c>
       <c r="V31" t="n">
-        <v>1544.941875129103</v>
+        <v>1057.214675160243</v>
       </c>
       <c r="W31" t="n">
-        <v>1255.524705092143</v>
+        <v>767.7975051232822</v>
       </c>
       <c r="X31" t="n">
-        <v>1027.535154194125</v>
+        <v>539.8079542252649</v>
       </c>
       <c r="Y31" t="n">
-        <v>806.7425750505952</v>
+        <v>539.8079542252649</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,52 +6698,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483405</v>
+        <v>2368.748013620956</v>
       </c>
       <c r="N32" t="n">
-        <v>2877.428556330836</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O32" t="n">
-        <v>3757.393206660291</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6777,13 +6777,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6795,22 +6795,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>709.4168978689404</v>
+        <v>460.4910241367926</v>
       </c>
       <c r="C34" t="n">
-        <v>540.4807149410336</v>
+        <v>460.4910241367926</v>
       </c>
       <c r="D34" t="n">
-        <v>390.3640755286979</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="E34" t="n">
-        <v>242.4509819463048</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6859,10 +6859,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6874,34 +6874,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q34" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104703</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U34" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V34" t="n">
-        <v>1412.55611102446</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W34" t="n">
-        <v>1123.138940987499</v>
+        <v>909.27315417834</v>
       </c>
       <c r="X34" t="n">
-        <v>1111.85794184271</v>
+        <v>681.2836032803226</v>
       </c>
       <c r="Y34" t="n">
-        <v>891.0653626991801</v>
+        <v>460.4910241367925</v>
       </c>
     </row>
     <row r="35">
@@ -6935,25 +6935,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161915</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089887</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L36" t="n">
         <v>794.200663232024</v>
@@ -7035,7 +7035,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142067</v>
@@ -7044,19 +7044,19 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
         <v>1138.808109517387</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>688.056975498841</v>
+        <v>263.4302928425585</v>
       </c>
       <c r="C37" t="n">
-        <v>520.1877171046772</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>388.2302264612115</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>241.3840574125616</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
         <v>95.56103444839442</v>
@@ -7093,52 +7093,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308517</v>
+        <v>141.7293596308513</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152497</v>
+        <v>346.762235315249</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992674</v>
+        <v>664.3677264992665</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.570464834338</v>
+        <v>1009.570464834337</v>
       </c>
       <c r="N37" t="n">
-        <v>1352.024534275724</v>
+        <v>1352.024534275723</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.399825931659</v>
+        <v>1652.399825931657</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.05301910084</v>
+        <v>1886.053019100838</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988877</v>
+        <v>1964.709007988874</v>
       </c>
       <c r="R37" t="n">
-        <v>1964.709007988877</v>
+        <v>1875.945475280145</v>
       </c>
       <c r="S37" t="n">
-        <v>1964.709007988877</v>
+        <v>1685.326515640714</v>
       </c>
       <c r="T37" t="n">
-        <v>1964.709007988877</v>
+        <v>1464.626824743983</v>
       </c>
       <c r="U37" t="n">
-        <v>1676.673065648263</v>
+        <v>1176.590882403369</v>
       </c>
       <c r="V37" t="n">
-        <v>1423.05550197612</v>
+        <v>922.9733187312252</v>
       </c>
       <c r="W37" t="n">
-        <v>1134.705256472902</v>
+        <v>634.6230732280073</v>
       </c>
       <c r="X37" t="n">
-        <v>907.7826301086279</v>
+        <v>634.6230732280073</v>
       </c>
       <c r="Y37" t="n">
-        <v>688.056975498841</v>
+        <v>444.0118331390554</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7181,19 +7181,19 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2016.310259422546</v>
+        <v>2016.310259422545</v>
       </c>
       <c r="N38" t="n">
-        <v>2979.169639353395</v>
+        <v>2996.062531649191</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7211,7 +7211,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7251,40 +7251,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7309,16 +7309,16 @@
         <v>788.5151678215052</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416715</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D40" t="n">
-        <v>564.361611377409</v>
+        <v>564.3616113774091</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430891</v>
+        <v>463.8981507430892</v>
       </c>
       <c r="F40" t="n">
-        <v>364.457836193252</v>
+        <v>364.4578361932522</v>
       </c>
       <c r="G40" t="n">
         <v>244.2046325160447</v>
@@ -7333,7 +7333,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L40" t="n">
         <v>800.7468040499223</v>
@@ -7351,7 +7351,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
@@ -7369,13 +7369,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036717</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,28 +7409,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1099.399357643587</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1963.918173296941</v>
       </c>
       <c r="M41" t="n">
-        <v>2016.310259422546</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N41" t="n">
-        <v>2996.062531649192</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O41" t="n">
-        <v>3876.027181978647</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P41" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468568</v>
@@ -7488,19 +7488,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7509,7 +7509,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7518,22 +7518,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215051</v>
+        <v>788.5151678215061</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416715</v>
+        <v>667.0286178416725</v>
       </c>
       <c r="D43" t="n">
-        <v>564.361611377409</v>
+        <v>564.3616113774101</v>
       </c>
       <c r="E43" t="n">
-        <v>463.898150743089</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F43" t="n">
         <v>364.4578361932525</v>
@@ -7582,19 +7582,19 @@
         <v>1579.322996860149</v>
       </c>
       <c r="O43" t="n">
-        <v>1925.157981032969</v>
+        <v>1925.15798103297</v>
       </c>
       <c r="P43" t="n">
-        <v>2204.270866719035</v>
+        <v>2204.270866719036</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829559</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
@@ -7603,16 +7603,16 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551623</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7649,25 +7649,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L44" t="n">
-        <v>1797.117834600129</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M44" t="n">
-        <v>2330.649739272054</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N44" t="n">
-        <v>2877.428556330836</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O44" t="n">
-        <v>3757.393206660291</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7679,19 +7679,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215047</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416711</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774086</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430888</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932518</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
@@ -7804,7 +7804,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
         <v>437.6816203490197</v>
@@ -7825,7 +7825,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
@@ -7834,22 +7834,22 @@
         <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V46" t="n">
-        <v>1518.564400937959</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036711</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,28 +8690,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>71.00061210864527</v>
       </c>
       <c r="M11" t="n">
-        <v>232.1124963760985</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>400.5976869789383</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>13.9882388354705</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>294.870787280166</v>
+        <v>37.1365111780442</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>176.2173930448433</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>195.2514630883931</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9644,19 +9644,19 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>229.7657919764154</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>119.6706498956039</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>135.6385654278962</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>219.9458872952495</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10121,16 +10121,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>173.22046068774</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>14.45386895940612</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10355,22 +10355,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>241.9338129178274</v>
+        <v>386.0843734984086</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>192.9047586887102</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10832,19 +10832,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>420.2833968404719</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>260.9678829613766</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>316.9032015413811</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11069,19 +11069,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>136.2499899971296</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,16 +11297,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>241.9338129178262</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>82.70159106555775</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>16.14213605696621</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.3204533960966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.707090857762978</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>55.27215733239899</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>31.95930209741333</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983815</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>94.35543628911199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>110.2739705259952</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983815</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>132.2320741356192</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>65.2599601088742</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983816</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>195.2269274548166</v>
       </c>
     </row>
     <row r="26">
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>86.62328620571</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.146369152343268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>146.4621057720838</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>131.0619064635971</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>30.12116628310547</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25093,7 +25093,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,10 +25135,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>214.5414662356961</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935316</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>16.92130199277558</v>
+        <v>147.559217729807</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>145.3777073581638</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>144.3647927345258</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706225</v>
+        <v>164.9695529706228</v>
       </c>
       <c r="H37" t="n">
-        <v>143.698759625915</v>
+        <v>143.6987596259154</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143235</v>
+        <v>95.29616512143269</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164159</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430362</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877635</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>224.6534001006318</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>28.82327037562695</v>
       </c>
     </row>
     <row r="38">
@@ -25561,7 +25561,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-3.694822225952521e-13</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>811519.1521634762</v>
+        <v>811519.1521634763</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>811519.1521634762</v>
+        <v>811519.1521634763</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>811519.1521634763</v>
+        <v>811519.1521634765</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982131</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.327398213</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
+        <v>595622.6803304749</v>
+      </c>
+      <c r="F2" t="n">
+        <v>595622.6803304751</v>
+      </c>
+      <c r="G2" t="n">
+        <v>595622.6803304751</v>
+      </c>
+      <c r="H2" t="n">
         <v>595622.680330475</v>
-      </c>
-      <c r="F2" t="n">
-        <v>595622.6803304753</v>
-      </c>
-      <c r="G2" t="n">
-        <v>595622.680330475</v>
-      </c>
-      <c r="H2" t="n">
-        <v>595622.6803304751</v>
       </c>
       <c r="I2" t="n">
         <v>595622.6803304749</v>
       </c>
       <c r="J2" t="n">
-        <v>595622.680330475</v>
+        <v>595622.6803304752</v>
       </c>
       <c r="K2" t="n">
         <v>595622.6803304751</v>
       </c>
       <c r="L2" t="n">
-        <v>595622.6803304749</v>
+        <v>595622.6803304751</v>
       </c>
       <c r="M2" t="n">
-        <v>596075.9558099122</v>
+        <v>596075.9558099121</v>
       </c>
       <c r="N2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="O2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982131</v>
       </c>
       <c r="P2" t="n">
-        <v>615781.327398213</v>
+        <v>615781.3273982132</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696694</v>
+        <v>130487.3190696692</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414944</v>
+        <v>36735.10506414972</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>183348.6868571279</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811464</v>
+        <v>18496.05294811452</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740898</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
         <v>33605.65329740899</v>
@@ -26473,34 +26473,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96472.31657955464</v>
+        <v>96472.31657955461</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-240394.3167368693</v>
+        <v>-240394.3167368691</v>
       </c>
       <c r="C6" t="n">
-        <v>349573.5624776757</v>
+        <v>349573.5624776755</v>
       </c>
       <c r="D6" t="n">
-        <v>349573.5624776756</v>
+        <v>349573.5624776753</v>
       </c>
       <c r="E6" t="n">
-        <v>-246286.7442358352</v>
+        <v>-246353.9397260611</v>
       </c>
       <c r="F6" t="n">
-        <v>481090.6697575718</v>
+        <v>481023.4742673457</v>
       </c>
       <c r="G6" t="n">
-        <v>481090.6697575714</v>
+        <v>481023.4742673457</v>
       </c>
       <c r="H6" t="n">
-        <v>481090.6697575715</v>
+        <v>481023.4742673456</v>
       </c>
       <c r="I6" t="n">
-        <v>481090.6697575713</v>
+        <v>481023.4742673454</v>
       </c>
       <c r="J6" t="n">
-        <v>304667.4505649783</v>
+        <v>304600.2550747529</v>
       </c>
       <c r="K6" t="n">
-        <v>481090.6697575717</v>
+        <v>481023.4742673457</v>
       </c>
       <c r="L6" t="n">
-        <v>481090.6697575713</v>
+        <v>481023.4742673459</v>
       </c>
       <c r="M6" t="n">
-        <v>350620.2672125736</v>
+        <v>350554.5826406127</v>
       </c>
       <c r="N6" t="n">
-        <v>445107.8980225522</v>
+        <v>445107.8980225517</v>
       </c>
       <c r="O6" t="n">
-        <v>481843.0030867014</v>
+        <v>481843.0030867019</v>
       </c>
       <c r="P6" t="n">
-        <v>481843.0030867019</v>
+        <v>481843.0030867021</v>
       </c>
     </row>
   </sheetData>
@@ -26716,13 +26716,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05625528840573</v>
+        <v>1.056255288405398</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
         <v>46.97513661859254</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05625528840573</v>
+        <v>1.056255288405398</v>
       </c>
       <c r="N2" t="n">
-        <v>45.9188813301868</v>
+        <v>45.91888133018715</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,22 +26981,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>39.06311083518733</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>60.55182108246545</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>102.0805177772102</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>229.5548768001848</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>32.56634295703006</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>217.392197992188</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>54.54517354861107</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27789,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27819,28 +27819,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>209.3638067647188</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>244.7494097821748</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>328.7334245505282</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>119.1404484305539</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>272.0395466913662</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.05625528840573</v>
+        <v>1.056255288405398</v>
       </c>
       <c r="C37" t="n">
-        <v>1.05625528840573</v>
+        <v>1.056255288405398</v>
       </c>
       <c r="D37" t="n">
-        <v>1.05625528840573</v>
+        <v>1.056255288405398</v>
       </c>
       <c r="E37" t="n">
-        <v>1.05625528840573</v>
+        <v>1.056255288405398</v>
       </c>
       <c r="F37" t="n">
-        <v>1.05625528840573</v>
+        <v>1.056255288405398</v>
       </c>
       <c r="G37" t="n">
-        <v>1.05625528840573</v>
+        <v>1.056255288405398</v>
       </c>
       <c r="H37" t="n">
-        <v>1.05625528840573</v>
+        <v>1.056255288405398</v>
       </c>
       <c r="I37" t="n">
-        <v>1.05625528840573</v>
+        <v>1.056255288405398</v>
       </c>
       <c r="J37" t="n">
-        <v>1.05625528840573</v>
+        <v>1.056255288405398</v>
       </c>
       <c r="K37" t="n">
-        <v>1.05625528840573</v>
+        <v>1.056255288405398</v>
       </c>
       <c r="L37" t="n">
-        <v>1.05625528840573</v>
+        <v>1.056255288405398</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05625528840573</v>
+        <v>1.056255288405398</v>
       </c>
       <c r="N37" t="n">
-        <v>1.05625528840573</v>
+        <v>1.056255288405398</v>
       </c>
       <c r="O37" t="n">
-        <v>1.05625528840573</v>
+        <v>1.056255288405398</v>
       </c>
       <c r="P37" t="n">
-        <v>1.05625528840573</v>
+        <v>1.056255288405398</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.05625528840573</v>
+        <v>1.056255288405398</v>
       </c>
       <c r="R37" t="n">
-        <v>1.05625528840573</v>
+        <v>1.056255288405398</v>
       </c>
       <c r="S37" t="n">
-        <v>1.05625528840573</v>
+        <v>1.056255288405398</v>
       </c>
       <c r="T37" t="n">
-        <v>1.05625528840573</v>
+        <v>1.056255288405398</v>
       </c>
       <c r="U37" t="n">
-        <v>1.05625528840573</v>
+        <v>1.056255288405398</v>
       </c>
       <c r="V37" t="n">
-        <v>1.05625528840573</v>
+        <v>1.056255288405398</v>
       </c>
       <c r="W37" t="n">
-        <v>1.05625528840573</v>
+        <v>1.056255288405398</v>
       </c>
       <c r="X37" t="n">
-        <v>1.05625528840573</v>
+        <v>1.056255288405398</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.05625528840573</v>
+        <v>1.056255288405398</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-1.815884897519829e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,7 +33026,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>526.5907265009774</v>
       </c>
       <c r="M11" t="n">
-        <v>771.0336122063251</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>939.5188028091651</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>522.0412397236896</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>693.6327734995376</v>
+        <v>435.8984973974161</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306615</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>715.1385088750701</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>446.0457678921125</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306615</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>768.6869078066419</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>370.4649546993234</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306615</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>674.559681258123</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>772.2477227081609</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36674,7 +36674,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>725.5222961006513</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>522.5068698476252</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265651</v>
@@ -37075,22 +37075,22 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>794.2356483307386</v>
+        <v>938.3862089113198</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597767</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>731.825874518937</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147195</v>
+        <v>46.63467190147162</v>
       </c>
       <c r="K37" t="n">
-        <v>207.1039148327253</v>
+        <v>207.1039148327249</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586038</v>
+        <v>320.8136274586035</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818896</v>
+        <v>348.6896346818892</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559458</v>
+        <v>345.9132014559455</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110455</v>
+        <v>303.4093855110452</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0133264335161</v>
+        <v>236.0133264335158</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629939</v>
+        <v>79.45049382629905</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>972.5852322533834</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>769.0208838495956</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37707,7 +37707,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861326</v>
@@ -37716,7 +37716,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>654.0944880967816</v>
       </c>
       <c r="L41" t="n">
         <v>873.2513289427826</v>
@@ -37789,19 +37789,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>535.0119762165015</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M43" t="n">
         <v>394.6085160120764</v>
@@ -38017,16 +38017,16 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>697.5239273101583</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>635.0034264784692</v>
       </c>
       <c r="O44" t="n">
         <v>888.8531821509645</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120764</v>
